--- a/Nowcasts/2025Q2/tables/nowcasts_2025Q3_Nr5_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q2/tables/nowcasts_2025Q3_Nr5_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Row</t>
   </si>
@@ -22,6 +22,63 @@
   </si>
   <si>
     <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -97,60 +154,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K9"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
-    <col min="2" max="2" width="12.64453125" customWidth="true"/>
-    <col min="3" max="3" width="6.98046875" customWidth="true"/>
-    <col min="4" max="4" width="9.77734375" customWidth="true"/>
-    <col min="5" max="5" width="6.1796875" customWidth="true"/>
-    <col min="6" max="6" width="7.98046875" customWidth="true"/>
-    <col min="7" max="7" width="7.84375" customWidth="true"/>
-    <col min="8" max="8" width="11.3125" customWidth="true"/>
-    <col min="9" max="9" width="5.77734375" customWidth="true"/>
-    <col min="10" max="10" width="15.046875" customWidth="true"/>
-    <col min="11" max="11" width="7.7109375" customWidth="true"/>
+    <col min="2" max="2" width="13.64453125" customWidth="true"/>
+    <col min="3" max="3" width="14.64453125" customWidth="true"/>
+    <col min="4" max="4" width="15.24609375" customWidth="true"/>
+    <col min="5" max="5" width="16.24609375" customWidth="true"/>
+    <col min="6" max="6" width="16.24609375" customWidth="true"/>
+    <col min="7" max="7" width="15.24609375" customWidth="true"/>
+    <col min="8" max="8" width="16.24609375" customWidth="true"/>
+    <col min="9" max="9" width="15.24609375" customWidth="true"/>
+    <col min="10" max="10" width="16.24609375" customWidth="true"/>
+    <col min="11" max="11" width="15.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B2" s="0">
         <v>0.37527426891168758</v>
@@ -185,7 +242,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B3" s="0">
         <v>0.31708574565096631</v>
@@ -216,6 +273,216 @@
       </c>
       <c r="K3" s="0">
         <v>0.0054302267121402736</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0.2825814367496714</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0.0035015974427056945</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0">
+        <v>3.7921679790105505e-06</v>
+      </c>
+      <c r="F4" s="0">
+        <v>4.7465392343572624e-06</v>
+      </c>
+      <c r="G4" s="0">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0.00027410692395374401</v>
+      </c>
+      <c r="I4" s="0">
+        <v>-0.012736696498412987</v>
+      </c>
+      <c r="J4" s="0">
+        <v>-0.00037475120138983736</v>
+      </c>
+      <c r="K4" s="0">
+        <v>0.002027633769801418</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0.43510821962719171</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0.05338023847829837</v>
+      </c>
+      <c r="D5" s="0">
+        <v>-0.020327768605354946</v>
+      </c>
+      <c r="E5" s="0">
+        <v>-0.00017346725034441329</v>
+      </c>
+      <c r="F5" s="0">
+        <v>-0.0018712718975358623</v>
+      </c>
+      <c r="G5" s="0">
+        <v>-0.0046916977053902522</v>
+      </c>
+      <c r="H5" s="0">
+        <v>-0.00021756219071922665</v>
+      </c>
+      <c r="I5" s="0">
+        <v>-0.0043082233187727833</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="0">
+        <v>0.004704571159738713</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0.5200778064185726</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0.1946052119878037</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0">
+        <v>-0.00096190993246717221</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0.0020396917510861951</v>
+      </c>
+      <c r="G6" s="0">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0.0010357055803978407</v>
+      </c>
+      <c r="I6" s="0">
+        <v>-0.0081321406716513937</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0">
+        <v>0.0050828005573559931</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0.54002252742079604</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0">
+        <v>-0.016726902485251126</v>
+      </c>
+      <c r="E7" s="0">
+        <v>-0.0020669475295016894</v>
+      </c>
+      <c r="F7" s="0">
+        <v>-0.019021642831012514</v>
+      </c>
+      <c r="G7" s="0">
+        <v>0.0082695654358545274</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0.0018051775409482281</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0</v>
+      </c>
+      <c r="K7" s="0">
+        <v>0.030734725821357722</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="0">
+        <v>0.081217166628326815</v>
+      </c>
+      <c r="C8" s="0">
+        <v>-0.26472180515896132</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0">
+        <v>0.00039033507231381564</v>
+      </c>
+      <c r="F8" s="0">
+        <v>-0.00063807787483772843</v>
+      </c>
+      <c r="G8" s="0">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0">
+        <v>-0.00015964120552535078</v>
+      </c>
+      <c r="I8" s="0">
+        <v>-0.022558720238235592</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0</v>
+      </c>
+      <c r="K8" s="0">
+        <v>-0.0012604904607906864</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="0">
+        <v>0.00024631141036812743</v>
+      </c>
+      <c r="C9" s="0">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0">
+        <v>-0.094923478746798878</v>
+      </c>
+      <c r="E9" s="0">
+        <v>-0.014214328202809249</v>
+      </c>
+      <c r="F9" s="0">
+        <v>-0.073760864546041874</v>
+      </c>
+      <c r="G9" s="0">
+        <v>-0.001391484155843128</v>
+      </c>
+      <c r="H9" s="0">
+        <v>-0.0021516875167245952</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0.0029054075023541926</v>
+      </c>
+      <c r="J9" s="0">
+        <v>0</v>
+      </c>
+      <c r="K9" s="0">
+        <v>0.006685061516602947</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q2/tables/nowcasts_2025Q3_Nr5_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q2/tables/nowcasts_2025Q3_Nr5_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Row</t>
   </si>
@@ -22,6 +22,63 @@
   </si>
   <si>
     <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -172,42 +229,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B2" s="0">
         <v>0.37527426891168758</v>
@@ -242,7 +299,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B3" s="0">
         <v>0.31708574565096631</v>
@@ -277,7 +334,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B4" s="0">
         <v>0.2825814367496714</v>
@@ -312,7 +369,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B5" s="0">
         <v>0.43510821962719171</v>
@@ -347,7 +404,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B6" s="0">
         <v>0.5200778064185726</v>
@@ -382,7 +439,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B7" s="0">
         <v>0.54002252742079604</v>
@@ -417,7 +474,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B8" s="0">
         <v>0.081217166628326815</v>
@@ -452,7 +509,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B9" s="0">
         <v>0.00024631141036812743</v>
